--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="516">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -659,13 +659,10 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/TipoDeObservacion</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -761,7 +758,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>Sistema de identificación de la observación</t>
+    <t>Sistema terminológico, url/uri/uuid</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -818,7 +815,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>108217004</t>
+    <t>84100007</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,9 +837,6 @@
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>entrevista, historia clínica y/o examen físico</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1137,9 +1131,6 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -1226,6 +1217,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1582,6 +1576,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1980,7 +1980,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.62890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -3877,11 +3877,9 @@
       <c r="X16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3914,30 +3912,30 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3960,13 +3958,13 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4017,7 +4015,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4041,7 +4039,7 @@
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -4052,10 +4050,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4084,7 +4082,7 @@
         <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>141</v>
@@ -4125,19 +4123,19 @@
         <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4161,7 +4159,7 @@
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4172,10 +4170,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4198,19 +4196,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4259,7 +4257,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4280,10 +4278,10 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4294,10 +4292,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4320,13 +4318,13 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4377,7 +4375,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4401,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4412,10 +4410,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4444,7 +4442,7 @@
         <v>139</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>141</v>
@@ -4485,19 +4483,19 @@
         <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AC21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4521,7 +4519,7 @@
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4532,10 +4530,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4561,16 +4559,16 @@
         <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4580,46 +4578,46 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4640,10 +4638,10 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4654,10 +4652,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4680,16 +4678,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4739,7 +4737,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4760,10 +4758,10 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4774,10 +4772,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4803,14 +4801,14 @@
         <v>112</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4820,46 +4818,46 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4880,10 +4878,10 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4894,10 +4892,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4905,7 +4903,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
@@ -4920,17 +4918,17 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4940,7 +4938,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>81</v>
@@ -4979,7 +4977,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5000,10 +4998,10 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -5014,10 +5012,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5040,19 +5038,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5101,7 +5099,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5122,10 +5120,10 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5136,10 +5134,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5147,7 +5145,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
@@ -5162,19 +5160,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5223,7 +5221,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5244,10 +5242,10 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5258,10 +5256,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5284,19 +5282,19 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5345,7 +5343,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5360,19 +5358,19 @@
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>81</v>
@@ -5380,10 +5378,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5406,16 +5404,16 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5465,7 +5463,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5486,13 +5484,13 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>81</v>
@@ -5500,14 +5498,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5526,19 +5524,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5587,7 +5585,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5602,19 +5600,19 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>81</v>
@@ -5622,14 +5620,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5648,19 +5646,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5697,17 +5695,17 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5722,19 +5720,19 @@
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>81</v>
@@ -5742,16 +5740,16 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5770,19 +5768,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5831,7 +5829,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5846,19 +5844,19 @@
         <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -5866,10 +5864,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5892,16 +5890,16 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5951,7 +5949,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5972,13 +5970,13 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>81</v>
@@ -5986,10 +5984,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6012,17 +6010,17 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6071,7 +6069,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6086,19 +6084,19 @@
         <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>81</v>
@@ -6106,10 +6104,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6132,19 +6130,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>202</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6193,7 +6191,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6202,7 +6200,7 @@
         <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>104</v>
@@ -6211,27 +6209,27 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6257,16 +6255,16 @@
         <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6291,13 +6289,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>360</v>
+        <v>206</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6315,7 +6313,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6324,7 +6322,7 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>104</v>
@@ -6339,7 +6337,7 @@
         <v>135</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6350,14 +6348,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6379,16 +6377,16 @@
         <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6413,13 +6411,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>360</v>
+        <v>206</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6437,7 +6435,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6455,27 +6453,27 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6498,19 +6496,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6559,7 +6557,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6580,10 +6578,10 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6594,10 +6592,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6623,13 +6621,13 @@
         <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6655,13 +6653,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6679,7 +6677,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6697,27 +6695,27 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6743,16 +6741,16 @@
         <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6777,13 +6775,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6801,7 +6799,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6822,10 +6820,10 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6836,10 +6834,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6862,16 +6860,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6921,7 +6919,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6939,27 +6937,27 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6982,16 +6980,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7041,7 +7039,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7059,27 +7057,27 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7102,19 +7100,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7163,7 +7161,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7175,19 +7173,19 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7198,10 +7196,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7224,13 +7222,13 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7281,7 +7279,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7305,7 +7303,7 @@
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7316,10 +7314,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7348,7 +7346,7 @@
         <v>139</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>141</v>
@@ -7401,7 +7399,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7425,7 +7423,7 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7436,14 +7434,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7465,10 +7463,10 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>141</v>
@@ -7523,7 +7521,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7558,10 +7556,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7584,13 +7582,13 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7641,7 +7639,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7650,7 +7648,7 @@
         <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>104</v>
@@ -7662,10 +7660,10 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7676,10 +7674,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7702,13 +7700,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7759,7 +7757,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7768,7 +7766,7 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>104</v>
@@ -7780,10 +7778,10 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7794,10 +7792,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7823,16 +7821,16 @@
         <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7860,10 +7858,10 @@
         <v>116</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7881,7 +7879,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7899,13 +7897,13 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7916,10 +7914,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7945,16 +7943,16 @@
         <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7979,13 +7977,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8003,7 +8001,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8021,13 +8019,13 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -8038,10 +8036,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8064,17 +8062,17 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8123,7 +8121,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8147,7 +8145,7 @@
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8158,10 +8156,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8184,13 +8182,13 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8241,7 +8239,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8262,10 +8260,10 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8276,10 +8274,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8302,16 +8300,16 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8361,7 +8359,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8382,10 +8380,10 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8396,10 +8394,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8422,16 +8420,16 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8481,7 +8479,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8502,10 +8500,10 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8516,10 +8514,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8542,19 +8540,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8603,7 +8601,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8624,10 +8622,10 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8638,10 +8636,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8664,13 +8662,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8721,7 +8719,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8745,7 +8743,7 @@
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8756,10 +8754,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8788,7 +8786,7 @@
         <v>139</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>141</v>
@@ -8841,7 +8839,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8865,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8876,14 +8874,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8905,10 +8903,10 @@
         <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>141</v>
@@ -8963,7 +8961,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8998,10 +8996,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9027,13 +9025,13 @@
         <v>191</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>205</v>
@@ -9061,13 +9059,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>207</v>
+        <v>500</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>208</v>
+        <v>501</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9085,7 +9083,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>92</v>
@@ -9106,13 +9104,13 @@
         <v>502</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>81</v>
@@ -9152,13 +9150,13 @@
         <v>505</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>506</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9228,16 +9226,16 @@
         <v>507</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -9280,7 +9278,7 @@
         <v>511</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9305,13 +9303,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>360</v>
+        <v>206</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9338,7 +9336,7 @@
         <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>104</v>
@@ -9353,7 +9351,7 @@
         <v>135</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -9371,7 +9369,7 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9393,16 +9391,16 @@
         <v>191</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9427,13 +9425,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>360</v>
+        <v>206</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9469,19 +9467,19 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -9521,10 +9519,10 @@
         <v>515</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9594,10 +9592,10 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -307,10 +307,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -2259,13 +2259,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>81</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="517">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreObservacionCL</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation</t>
+    <t>Identificación para la observación</t>
   </si>
   <si>
     <t>A unique identifier assigned to this observation.</t>
@@ -573,7 +573,7 @@
     <t>Estado de la observación, en este caso #registered</t>
   </si>
   <si>
-    <t>The status of the result value.</t>
+    <t>Estado de la observación</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -588,7 +588,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
+    <t>Códigos provistos para el estado de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -616,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation</t>
+    <t>Clasificación del tipo de observación</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -628,7 +628,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
+    <t>Códigos de alto nivel para la categoría de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
+    <t>Sobre Quien o Que se esta realizando la observación</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -993,7 +993,7 @@
 PeriodTiminginstant</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation</t>
+    <t>Tiempo/Tiempo-periodo de relevancia clínica para la observación</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -1062,11 +1062,11 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|CareTeam|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t>Quien es responsable por la observación</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1151,10 +1151,10 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+    <t>Alta, baja, normal, etc</t>
+  </si>
+  <si>
+    <t>Interpretación del valor de la observación</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
@@ -1163,7 +1163,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Codes identifying interpretations of observations.</t>
+    <t>Códigos de identificción para la interpretación de la observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>Comments about the observation</t>
+    <t>Comentarios sobre la observación</t>
   </si>
   <si>
     <t>Comments about the observation or the results.</t>
@@ -1274,7 +1274,7 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
+    <t>Muestra tomada para la observación</t>
   </si>
   <si>
     <t>The specimen that was used when this observation was made.</t>
@@ -1498,17 +1498,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreObservacionCL|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
+    <t>Grupo de recursos relacionados a la observación</t>
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1539,7 +1539,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
+    <t>Componentes de los resultados</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1569,7 +1569,7 @@
     <t>Observation.component.code</t>
   </si>
   <si>
-    <t>Type of component observation (code / type)</t>
+    <t>Tipo de componente de la observación (code/type)</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
@@ -1578,7 +1578,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
+    <t>Códigos de identficación simple para el nombre de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1595,7 +1595,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual component result</t>
+    <t>Actual Resultado del componente</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1618,6 +1618,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Interpretación del valor del componente de la observación</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1965,7 +1968,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3225,7 +3228,7 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
@@ -3707,7 +3710,7 @@
         <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>81</v>
@@ -5637,7 +5640,7 @@
         <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
@@ -6001,7 +6004,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
@@ -6365,7 +6368,7 @@
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>81</v>
@@ -6487,7 +6490,7 @@
         <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
@@ -6851,7 +6854,7 @@
         <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
@@ -8291,7 +8294,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>81</v>
@@ -8531,7 +8534,7 @@
         <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>81</v>
@@ -9013,7 +9016,7 @@
         <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>81</v>
@@ -9135,7 +9138,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>81</v>
@@ -9379,7 +9382,7 @@
         <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>81</v>
@@ -9394,7 +9397,7 @@
         <v>364</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>365</v>
+        <v>513</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>366</v>
@@ -9484,10 +9487,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9513,10 +9516,10 @@
         <v>82</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>424</v>
@@ -9571,7 +9574,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t>Sobre Quien o Que se esta realizando la observación</t>
+    <t>Sobre Quien o Que se está realizando la observación</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -1163,7 +1163,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Códigos de identificción para la interpretación de la observación</t>
+    <t>Códigos de identificación para la interpretación de la observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1578,7 +1578,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Códigos de identficación simple para el nombre de una observación</t>
+    <t>Códigos de identificación simple para el nombre de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1982,7 +1982,7 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="68.62890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1958,15 +1958,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1977,28 +1977,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.62890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.4140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="214.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
